--- a/data/pca/factorExposure/factorExposure_2017-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02356822704437716</v>
+        <v>0.009170594994542551</v>
       </c>
       <c r="C2">
-        <v>0.004066880476265481</v>
+        <v>0.04254360032733637</v>
       </c>
       <c r="D2">
-        <v>0.02882005167456279</v>
+        <v>0.02970765636766019</v>
       </c>
       <c r="E2">
-        <v>-0.009343434769492114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03068287902667144</v>
+      </c>
+      <c r="F2">
+        <v>0.009087885899136026</v>
+      </c>
+      <c r="G2">
+        <v>-0.07631544401563455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01787436619404853</v>
+        <v>0.04371275202302365</v>
       </c>
       <c r="C3">
-        <v>-0.05482041500089587</v>
+        <v>0.09095320127775323</v>
       </c>
       <c r="D3">
-        <v>0.04726392036399858</v>
+        <v>0.01777721849930762</v>
       </c>
       <c r="E3">
-        <v>-0.01706466243495414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1023787776419074</v>
+      </c>
+      <c r="F3">
+        <v>0.01235307606890582</v>
+      </c>
+      <c r="G3">
+        <v>-0.1755974233324341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02390292055343951</v>
+        <v>0.05549605268128754</v>
       </c>
       <c r="C4">
-        <v>-0.0114153240741631</v>
+        <v>0.06687883454068509</v>
       </c>
       <c r="D4">
-        <v>0.07941900511144354</v>
+        <v>0.0245024269473781</v>
       </c>
       <c r="E4">
-        <v>0.01702384176812821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02479658215248665</v>
+      </c>
+      <c r="F4">
+        <v>0.01231568754272945</v>
+      </c>
+      <c r="G4">
+        <v>-0.08796633158634164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01452833831954381</v>
+        <v>0.03712884860064831</v>
       </c>
       <c r="C6">
-        <v>-0.000525863643128822</v>
+        <v>0.0534685560523367</v>
       </c>
       <c r="D6">
-        <v>0.08103958122476006</v>
+        <v>0.01649245624264717</v>
       </c>
       <c r="E6">
-        <v>0.01121274168015862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02389297643643381</v>
+      </c>
+      <c r="F6">
+        <v>0.009433902502236734</v>
+      </c>
+      <c r="G6">
+        <v>-0.06232043498868498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01106960623754628</v>
+        <v>0.01956778739124649</v>
       </c>
       <c r="C7">
-        <v>-0.005800302361333552</v>
+        <v>0.0407530520693512</v>
       </c>
       <c r="D7">
-        <v>0.04173725648973042</v>
+        <v>0.01316334836375986</v>
       </c>
       <c r="E7">
-        <v>0.05758022356071556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005448465123204927</v>
+      </c>
+      <c r="F7">
+        <v>-0.002531170628293596</v>
+      </c>
+      <c r="G7">
+        <v>-0.1183843244515013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002178240231903634</v>
+        <v>0.001996887728653235</v>
       </c>
       <c r="C8">
-        <v>0.00202967119680592</v>
+        <v>0.02350387297155242</v>
       </c>
       <c r="D8">
-        <v>0.003263510182340319</v>
+        <v>0.004040201162468312</v>
       </c>
       <c r="E8">
-        <v>0.008287882826885137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02062853591643973</v>
+      </c>
+      <c r="F8">
+        <v>0.008059813252319728</v>
+      </c>
+      <c r="G8">
+        <v>-0.05778079685563995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01647820029996925</v>
+        <v>0.03278569075365129</v>
       </c>
       <c r="C9">
-        <v>-0.01357388292039038</v>
+        <v>0.0483999062132176</v>
       </c>
       <c r="D9">
-        <v>0.06000838023231488</v>
+        <v>0.01675387860676895</v>
       </c>
       <c r="E9">
-        <v>0.006904540933721945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01577315297441331</v>
+      </c>
+      <c r="F9">
+        <v>0.01064097000169464</v>
+      </c>
+      <c r="G9">
+        <v>-0.08482407751110969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02427306574504632</v>
+        <v>0.0995528202542984</v>
       </c>
       <c r="C10">
-        <v>-0.1739443043148331</v>
+        <v>-0.1811321210316658</v>
       </c>
       <c r="D10">
-        <v>-0.09520170826946928</v>
+        <v>-0.01487774268398229</v>
       </c>
       <c r="E10">
-        <v>-0.01259776736816171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01816543980951774</v>
+      </c>
+      <c r="F10">
+        <v>-0.02066206743939968</v>
+      </c>
+      <c r="G10">
+        <v>-0.05389560483605185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006678192479167986</v>
+        <v>0.03396929302876613</v>
       </c>
       <c r="C11">
-        <v>-0.002303853678312946</v>
+        <v>0.05485259980801496</v>
       </c>
       <c r="D11">
-        <v>0.04638360646070868</v>
+        <v>0.002401312005330869</v>
       </c>
       <c r="E11">
-        <v>-0.00362600662141301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008394714968167414</v>
+      </c>
+      <c r="F11">
+        <v>0.02176638697106791</v>
+      </c>
+      <c r="G11">
+        <v>-0.06738616447729219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00638450218992839</v>
+        <v>0.03552483883058464</v>
       </c>
       <c r="C12">
-        <v>-0.009102677115992138</v>
+        <v>0.04868097137120173</v>
       </c>
       <c r="D12">
-        <v>0.04799124786528416</v>
+        <v>0.006104508200861665</v>
       </c>
       <c r="E12">
-        <v>0.007827690846757643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>6.329673877700394e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.001287217204877602</v>
+      </c>
+      <c r="G12">
+        <v>-0.06334630218137588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02403633316288669</v>
+        <v>0.01487567567494623</v>
       </c>
       <c r="C13">
-        <v>-0.01664944586283544</v>
+        <v>0.03833087851958606</v>
       </c>
       <c r="D13">
-        <v>0.009145160266318746</v>
+        <v>0.02629222976610353</v>
       </c>
       <c r="E13">
-        <v>-0.008111314312569258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02843560264463918</v>
+      </c>
+      <c r="F13">
+        <v>0.007474218776490389</v>
+      </c>
+      <c r="G13">
+        <v>-0.09906314496052433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008744152514303879</v>
+        <v>0.007761776170553768</v>
       </c>
       <c r="C14">
-        <v>-0.01373660844862609</v>
+        <v>0.02684081990625488</v>
       </c>
       <c r="D14">
-        <v>0.01164778523780201</v>
+        <v>0.009488344536745142</v>
       </c>
       <c r="E14">
-        <v>0.008116097530346469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.000528931848229951</v>
+      </c>
+      <c r="F14">
+        <v>-0.006861920769120459</v>
+      </c>
+      <c r="G14">
+        <v>-0.08447213195453046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001678131588655235</v>
+        <v>0.03282030273132771</v>
       </c>
       <c r="C16">
-        <v>-0.009159717747881563</v>
+        <v>0.04863151083148406</v>
       </c>
       <c r="D16">
-        <v>0.04951008600080165</v>
+        <v>0.001939608856973493</v>
       </c>
       <c r="E16">
-        <v>0.006376243396040511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007504258258039414</v>
+      </c>
+      <c r="F16">
+        <v>0.002935517298543007</v>
+      </c>
+      <c r="G16">
+        <v>-0.07031459663624511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01498941826971642</v>
+        <v>0.02014965591460718</v>
       </c>
       <c r="C19">
-        <v>-0.01797706854142956</v>
+        <v>0.05036742764695246</v>
       </c>
       <c r="D19">
-        <v>0.02206634292889939</v>
+        <v>0.01903987482150089</v>
       </c>
       <c r="E19">
-        <v>0.004643524113882398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0649722414277789</v>
+      </c>
+      <c r="F19">
+        <v>0.02486095915033676</v>
+      </c>
+      <c r="G19">
+        <v>-0.1158241019275149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01113528463105221</v>
+        <v>0.01410667183777404</v>
       </c>
       <c r="C20">
-        <v>-0.005788062341883396</v>
+        <v>0.03766170557038371</v>
       </c>
       <c r="D20">
-        <v>0.01756105660954165</v>
+        <v>0.01411013156485021</v>
       </c>
       <c r="E20">
-        <v>-0.01063832112772919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02674454224609683</v>
+      </c>
+      <c r="F20">
+        <v>-0.009193272681345283</v>
+      </c>
+      <c r="G20">
+        <v>-0.09058860914933936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01537611098890242</v>
+        <v>0.01180919438542766</v>
       </c>
       <c r="C21">
-        <v>-0.01690169812621817</v>
+        <v>0.0392423416901664</v>
       </c>
       <c r="D21">
-        <v>0.02607894420121242</v>
+        <v>0.01858183092271127</v>
       </c>
       <c r="E21">
-        <v>0.01361460001789013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03956853250998436</v>
+      </c>
+      <c r="F21">
+        <v>0.0008845536635205807</v>
+      </c>
+      <c r="G21">
+        <v>-0.1197550991746848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.000467428154186158</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002856106453431407</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002103155509760933</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0007639413780975602</v>
+      </c>
+      <c r="F22">
+        <v>0.0007706771042639633</v>
+      </c>
+      <c r="G22">
+        <v>-0.001688381084317935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0004697835334229968</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002804887063056384</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002085215807497391</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0007589553770804631</v>
+      </c>
+      <c r="F23">
+        <v>0.0007604385541420645</v>
+      </c>
+      <c r="G23">
+        <v>-0.001680576677278932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004265012035550447</v>
+        <v>0.0272949439263847</v>
       </c>
       <c r="C24">
-        <v>0.003649735961246364</v>
+        <v>0.05127404427052088</v>
       </c>
       <c r="D24">
-        <v>0.045999125517915</v>
+        <v>0.007195562945624816</v>
       </c>
       <c r="E24">
-        <v>0.005327529495272901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.00413854936974533</v>
+      </c>
+      <c r="F24">
+        <v>0.01427295525098523</v>
+      </c>
+      <c r="G24">
+        <v>-0.07079893246848935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0125387676963733</v>
+        <v>0.04203590336429128</v>
       </c>
       <c r="C25">
-        <v>-0.014519490257832</v>
+        <v>0.05866909515689754</v>
       </c>
       <c r="D25">
-        <v>0.04935544130684447</v>
+        <v>0.01120214620566745</v>
       </c>
       <c r="E25">
-        <v>0.004227250129531354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002120713470874094</v>
+      </c>
+      <c r="F25">
+        <v>0.008474494358840453</v>
+      </c>
+      <c r="G25">
+        <v>-0.07917318633917872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02356715312490051</v>
+        <v>0.01412266114194813</v>
       </c>
       <c r="C26">
-        <v>-0.009802558330633039</v>
+        <v>0.01046521986265272</v>
       </c>
       <c r="D26">
-        <v>-0.00181919485021543</v>
+        <v>0.02378752927318735</v>
       </c>
       <c r="E26">
-        <v>0.00765553787870469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.00503463848853683</v>
+      </c>
+      <c r="F26">
+        <v>-0.007571744903205206</v>
+      </c>
+      <c r="G26">
+        <v>-0.06732900693799569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04827868253721555</v>
+        <v>0.1284227618099319</v>
       </c>
       <c r="C28">
-        <v>-0.246667063234524</v>
+        <v>-0.2349297576448755</v>
       </c>
       <c r="D28">
-        <v>-0.1361947034502139</v>
+        <v>-0.005860743874516567</v>
       </c>
       <c r="E28">
-        <v>0.01030667099514173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.005350216355957091</v>
+      </c>
+      <c r="F28">
+        <v>-0.01635328710818938</v>
+      </c>
+      <c r="G28">
+        <v>-0.06654520623027985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009214834198351307</v>
+        <v>0.009159566800959158</v>
       </c>
       <c r="C29">
-        <v>-0.01847074851010105</v>
+        <v>0.02097942481894484</v>
       </c>
       <c r="D29">
-        <v>0.01025764304450589</v>
+        <v>0.008503620222468056</v>
       </c>
       <c r="E29">
-        <v>0.003135329053741459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001371995736661039</v>
+      </c>
+      <c r="F29">
+        <v>-0.01535015566006757</v>
+      </c>
+      <c r="G29">
+        <v>-0.07694901044145303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02420488080491283</v>
+        <v>0.04050995796136461</v>
       </c>
       <c r="C30">
-        <v>0.001452401193926027</v>
+        <v>0.0679287921987746</v>
       </c>
       <c r="D30">
-        <v>0.06149931892883215</v>
+        <v>0.02926816081240838</v>
       </c>
       <c r="E30">
-        <v>-0.04312433198295608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05088610817500227</v>
+      </c>
+      <c r="F30">
+        <v>0.05154780942594585</v>
+      </c>
+      <c r="G30">
+        <v>-0.08590105565352157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01033192826544356</v>
+        <v>0.05234858929428373</v>
       </c>
       <c r="C31">
-        <v>-0.03913233898401168</v>
+        <v>0.03694558578719853</v>
       </c>
       <c r="D31">
-        <v>0.04639075689668588</v>
+        <v>0.00343884317973625</v>
       </c>
       <c r="E31">
-        <v>0.01028965726943938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.004429177017288174</v>
+      </c>
+      <c r="F31">
+        <v>-0.03952291990999068</v>
+      </c>
+      <c r="G31">
+        <v>-0.07595284671403627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004506037119922035</v>
+        <v>0.001440012521515838</v>
       </c>
       <c r="C32">
-        <v>-0.02305302920243273</v>
+        <v>0.02282928675127008</v>
       </c>
       <c r="D32">
-        <v>-0.0003038984810013273</v>
+        <v>-0.003918739598352029</v>
       </c>
       <c r="E32">
-        <v>0.05259700680455395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01463831035839434</v>
+      </c>
+      <c r="F32">
+        <v>0.03938253204932897</v>
+      </c>
+      <c r="G32">
+        <v>-0.09324448522190946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01462774306023382</v>
+        <v>0.02696326589197104</v>
       </c>
       <c r="C33">
-        <v>-0.02324379447653717</v>
+        <v>0.04902766336433641</v>
       </c>
       <c r="D33">
-        <v>0.03520864208848991</v>
+        <v>0.01564960875494861</v>
       </c>
       <c r="E33">
-        <v>-0.02713486519682318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03296715862187731</v>
+      </c>
+      <c r="F33">
+        <v>0.0191458489545757</v>
+      </c>
+      <c r="G33">
+        <v>-0.1137335493828791</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003878810783471337</v>
+        <v>0.0397179791442068</v>
       </c>
       <c r="C34">
-        <v>-0.01479829588807424</v>
+        <v>0.06230507341708369</v>
       </c>
       <c r="D34">
-        <v>0.05406929673702821</v>
+        <v>-0.004704155493119845</v>
       </c>
       <c r="E34">
-        <v>0.01152736158517122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001634272613466927</v>
+      </c>
+      <c r="F34">
+        <v>0.02070409066231053</v>
+      </c>
+      <c r="G34">
+        <v>-0.07863749697842116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01342977660901263</v>
+        <v>0.01558846279743821</v>
       </c>
       <c r="C36">
-        <v>-0.01918251550761094</v>
+        <v>0.008719225611945613</v>
       </c>
       <c r="D36">
-        <v>0.007074045893472903</v>
+        <v>0.01196457027948943</v>
       </c>
       <c r="E36">
-        <v>0.004301403148322046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001701090050807156</v>
+      </c>
+      <c r="F36">
+        <v>-0.006257299778833588</v>
+      </c>
+      <c r="G36">
+        <v>-0.06771782137656562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00265228559513321</v>
+        <v>0.03240315073811329</v>
       </c>
       <c r="C38">
-        <v>-0.03280890395814068</v>
+        <v>0.03122929698965817</v>
       </c>
       <c r="D38">
-        <v>0.04342716164660832</v>
+        <v>-0.00763715355952803</v>
       </c>
       <c r="E38">
-        <v>0.007509323301433322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002389533746790672</v>
+      </c>
+      <c r="F38">
+        <v>-0.01664476940690324</v>
+      </c>
+      <c r="G38">
+        <v>-0.07124303488100822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.003945959245593525</v>
+        <v>0.03431979117756909</v>
       </c>
       <c r="C39">
-        <v>0.02570652940355746</v>
+        <v>0.0809899612477432</v>
       </c>
       <c r="D39">
-        <v>0.08802314944412171</v>
+        <v>0.01170607900456482</v>
       </c>
       <c r="E39">
-        <v>-0.006958898566448424</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01849407862252438</v>
+      </c>
+      <c r="F39">
+        <v>0.0270628683611195</v>
+      </c>
+      <c r="G39">
+        <v>-0.06723588006282524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0124802898143227</v>
+        <v>0.01508298472883062</v>
       </c>
       <c r="C40">
-        <v>-0.01512682579985355</v>
+        <v>0.0418965029375528</v>
       </c>
       <c r="D40">
-        <v>0.02948599867601673</v>
+        <v>0.01498675837000724</v>
       </c>
       <c r="E40">
-        <v>0.00465917988934504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02061505375516863</v>
+      </c>
+      <c r="F40">
+        <v>-0.01303590231293033</v>
+      </c>
+      <c r="G40">
+        <v>-0.107575343069429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006843749492872139</v>
+        <v>0.01923487088085829</v>
       </c>
       <c r="C41">
-        <v>-0.02217236686655141</v>
+        <v>-0.0002229423978786313</v>
       </c>
       <c r="D41">
-        <v>-0.007549390693061913</v>
+        <v>0.004059038687298211</v>
       </c>
       <c r="E41">
-        <v>0.002599295586749801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0004169300977332646</v>
+      </c>
+      <c r="F41">
+        <v>-0.01081444435397514</v>
+      </c>
+      <c r="G41">
+        <v>-0.05487493184833465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09266194160694825</v>
+        <v>0.009596491360521077</v>
       </c>
       <c r="C42">
-        <v>0.02803109163151487</v>
+        <v>0.03673101817211974</v>
       </c>
       <c r="D42">
-        <v>0.2470833846973812</v>
+        <v>0.09314516066732149</v>
       </c>
       <c r="E42">
-        <v>-0.3936136342283664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0267822335352963</v>
+      </c>
+      <c r="F42">
+        <v>-0.03570470483946606</v>
+      </c>
+      <c r="G42">
+        <v>0.1446621872891046</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008206515262914561</v>
+        <v>0.03290935183691621</v>
       </c>
       <c r="C43">
-        <v>-0.0267460715241143</v>
+        <v>0.01391836485716793</v>
       </c>
       <c r="D43">
-        <v>-0.005330004198114583</v>
+        <v>0.005748070092325945</v>
       </c>
       <c r="E43">
-        <v>-0.0005997355726834312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01399173847567132</v>
+      </c>
+      <c r="F43">
+        <v>-0.002142076609462848</v>
+      </c>
+      <c r="G43">
+        <v>-0.08076482791242337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002918103827676138</v>
+        <v>0.0116915714201557</v>
       </c>
       <c r="C44">
-        <v>-0.001716333468506074</v>
+        <v>0.05689003432770788</v>
       </c>
       <c r="D44">
-        <v>0.04009207353928621</v>
+        <v>0.006658670548762354</v>
       </c>
       <c r="E44">
-        <v>0.009131080963201359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01693072096858575</v>
+      </c>
+      <c r="F44">
+        <v>-0.008505087553946706</v>
+      </c>
+      <c r="G44">
+        <v>-0.0890361989842556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01167615110354889</v>
+        <v>0.007621703123538743</v>
       </c>
       <c r="C46">
-        <v>-0.01480753257797479</v>
+        <v>0.01590659290111964</v>
       </c>
       <c r="D46">
-        <v>0.01097915648386168</v>
+        <v>0.01219820073618985</v>
       </c>
       <c r="E46">
-        <v>-0.002012071213173819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001031090854073325</v>
+      </c>
+      <c r="F46">
+        <v>-0.0148697240684493</v>
+      </c>
+      <c r="G46">
+        <v>-0.07781634839714649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004855310428919027</v>
+        <v>0.07706204844036779</v>
       </c>
       <c r="C47">
-        <v>-0.04787488773110501</v>
+        <v>0.06692232054636198</v>
       </c>
       <c r="D47">
-        <v>0.07259923011792675</v>
+        <v>-0.005369941492478721</v>
       </c>
       <c r="E47">
-        <v>0.00708716797279574</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008935642775625668</v>
+      </c>
+      <c r="F47">
+        <v>-0.05346401130081452</v>
+      </c>
+      <c r="G47">
+        <v>-0.06912491126171488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004323227015141443</v>
+        <v>0.02024276032467491</v>
       </c>
       <c r="C48">
-        <v>-0.0235031105500076</v>
+        <v>0.01202872934366525</v>
       </c>
       <c r="D48">
-        <v>0.01895551856153431</v>
+        <v>0.00131378357707598</v>
       </c>
       <c r="E48">
-        <v>0.002780738352834328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001065241504651615</v>
+      </c>
+      <c r="F48">
+        <v>-0.02000837488212578</v>
+      </c>
+      <c r="G48">
+        <v>-0.07277642162234405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.007324578003776284</v>
+        <v>0.07533290104852952</v>
       </c>
       <c r="C50">
-        <v>-0.05252597328197453</v>
+        <v>0.06943843057783314</v>
       </c>
       <c r="D50">
-        <v>0.07223184672007467</v>
+        <v>-0.00292287989416385</v>
       </c>
       <c r="E50">
-        <v>0.03339799303647974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.008698764584503433</v>
+      </c>
+      <c r="F50">
+        <v>-0.05677398903337107</v>
+      </c>
+      <c r="G50">
+        <v>-0.08884064405331266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007625813468260376</v>
+        <v>0.01360686611419607</v>
       </c>
       <c r="C51">
-        <v>-0.01361687557879543</v>
+        <v>0.03484373925167067</v>
       </c>
       <c r="D51">
-        <v>0.001222497090488749</v>
+        <v>0.01024306962328449</v>
       </c>
       <c r="E51">
-        <v>0.006594782349482613</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01645962801480503</v>
+      </c>
+      <c r="F51">
+        <v>0.02486886554314626</v>
+      </c>
+      <c r="G51">
+        <v>-0.1055861446008481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007976140372005574</v>
+        <v>0.08128220803004899</v>
       </c>
       <c r="C53">
-        <v>-0.05752761001481907</v>
+        <v>0.08431904364161265</v>
       </c>
       <c r="D53">
-        <v>0.130831507563056</v>
+        <v>-0.004410596031489012</v>
       </c>
       <c r="E53">
-        <v>0.01763841335128291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02896942321939727</v>
+      </c>
+      <c r="F53">
+        <v>-0.06562161785004893</v>
+      </c>
+      <c r="G53">
+        <v>-0.06856334266427416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.00240822240867139</v>
+        <v>0.02889965002949067</v>
       </c>
       <c r="C54">
-        <v>-0.03577959112234302</v>
+        <v>0.01524273729673775</v>
       </c>
       <c r="D54">
-        <v>-0.006515738802254975</v>
+        <v>-0.001422336375077579</v>
       </c>
       <c r="E54">
-        <v>-0.0002847039476320096</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.009876827330077118</v>
+      </c>
+      <c r="F54">
+        <v>0.001738059857685031</v>
+      </c>
+      <c r="G54">
+        <v>-0.07915916524718258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.004025955144598122</v>
+        <v>0.07091037231321226</v>
       </c>
       <c r="C55">
-        <v>-0.03673944123027131</v>
+        <v>0.06895017948325477</v>
       </c>
       <c r="D55">
-        <v>0.1041980717572832</v>
+        <v>-0.005502247790327023</v>
       </c>
       <c r="E55">
-        <v>0.001013030933833431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02446442485149419</v>
+      </c>
+      <c r="F55">
+        <v>-0.06137366592334606</v>
+      </c>
+      <c r="G55">
+        <v>-0.043570355066373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.007616571725005923</v>
+        <v>0.1371845231204208</v>
       </c>
       <c r="C56">
-        <v>-0.08206180374769911</v>
+        <v>0.1094707171991494</v>
       </c>
       <c r="D56">
-        <v>0.1669079141891021</v>
+        <v>-0.01295526135958535</v>
       </c>
       <c r="E56">
-        <v>0.006635835675468446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03256577837800018</v>
+      </c>
+      <c r="F56">
+        <v>-0.08005339232077334</v>
+      </c>
+      <c r="G56">
+        <v>-0.02054606096863185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02421083688428737</v>
+        <v>0.006854264136216995</v>
       </c>
       <c r="C57">
-        <v>-0.008929057436136562</v>
+        <v>0.009295646573643736</v>
       </c>
       <c r="D57">
-        <v>0.04648290548641217</v>
+        <v>0.02362071460859894</v>
       </c>
       <c r="E57">
-        <v>-0.004760360025256713</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02387122848367818</v>
+      </c>
+      <c r="F57">
+        <v>0.008704790238745054</v>
+      </c>
+      <c r="G57">
+        <v>-0.02855311845304676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01693362808424117</v>
+        <v>0.05776894800480724</v>
       </c>
       <c r="C58">
-        <v>-0.07012573354258946</v>
+        <v>0.0535317432430906</v>
       </c>
       <c r="D58">
-        <v>0.1469858315332752</v>
+        <v>0.03161543434156602</v>
       </c>
       <c r="E58">
-        <v>-0.4896241608234906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9364326383146366</v>
+      </c>
+      <c r="F58">
+        <v>-0.2363898780030824</v>
+      </c>
+      <c r="G58">
+        <v>0.1160125739565973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04655988031012391</v>
+        <v>0.1611566272300906</v>
       </c>
       <c r="C59">
-        <v>-0.2641471536214858</v>
+        <v>-0.1996635389568797</v>
       </c>
       <c r="D59">
-        <v>-0.1359963924560581</v>
+        <v>-0.01083207868346204</v>
       </c>
       <c r="E59">
-        <v>0.003265989265985788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01769480726932129</v>
+      </c>
+      <c r="F59">
+        <v>0.00268577816712006</v>
+      </c>
+      <c r="G59">
+        <v>-0.04189190090811842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04457812214101304</v>
+        <v>0.2855529982663908</v>
       </c>
       <c r="C60">
-        <v>-0.1593528221489659</v>
+        <v>0.1080741231807274</v>
       </c>
       <c r="D60">
-        <v>0.0940178642003467</v>
+        <v>0.013480232760771</v>
       </c>
       <c r="E60">
-        <v>0.01043414087318199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.00287681172738377</v>
+      </c>
+      <c r="F60">
+        <v>0.3520770373947053</v>
+      </c>
+      <c r="G60">
+        <v>0.126079485768218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003058457398977212</v>
+        <v>0.03663100216126002</v>
       </c>
       <c r="C61">
-        <v>-0.002799997181870454</v>
+        <v>0.067422349517718</v>
       </c>
       <c r="D61">
-        <v>0.06627500638993693</v>
+        <v>0.005191296392957312</v>
       </c>
       <c r="E61">
-        <v>0.005727031159659056</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01166898564604279</v>
+      </c>
+      <c r="F61">
+        <v>0.01506363242849906</v>
+      </c>
+      <c r="G61">
+        <v>-0.06941722478557141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008328203994655942</v>
+        <v>0.01431582532580863</v>
       </c>
       <c r="C63">
-        <v>-0.007450633595499023</v>
+        <v>0.02863691038997646</v>
       </c>
       <c r="D63">
-        <v>0.01774036960931163</v>
+        <v>0.008203197392104653</v>
       </c>
       <c r="E63">
-        <v>0.01128776910302935</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001026397575633777</v>
+      </c>
+      <c r="F63">
+        <v>-0.01691859978597347</v>
+      </c>
+      <c r="G63">
+        <v>-0.07691748705075324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009498992348516236</v>
+        <v>0.04728493212124536</v>
       </c>
       <c r="C64">
-        <v>-0.0265992855775675</v>
+        <v>0.04607693642168077</v>
       </c>
       <c r="D64">
-        <v>0.06092283796969863</v>
+        <v>0.006355906546017484</v>
       </c>
       <c r="E64">
-        <v>-0.009436950829833299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.001190083098291687</v>
+      </c>
+      <c r="F64">
+        <v>0.006579986238760268</v>
+      </c>
+      <c r="G64">
+        <v>-0.06807484041547963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01642492760604322</v>
+        <v>0.07513947906360849</v>
       </c>
       <c r="C65">
-        <v>0.001332247502388169</v>
+        <v>0.06093178169548726</v>
       </c>
       <c r="D65">
-        <v>0.0928766653353577</v>
+        <v>0.01642999009248304</v>
       </c>
       <c r="E65">
-        <v>0.01763620675506436</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02694307059436458</v>
+      </c>
+      <c r="F65">
+        <v>0.02873861064767158</v>
+      </c>
+      <c r="G65">
+        <v>-0.0285187947415726</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.003909672960616633</v>
+        <v>0.04989065086439734</v>
       </c>
       <c r="C66">
-        <v>0.02140124985592341</v>
+        <v>0.111124017691744</v>
       </c>
       <c r="D66">
-        <v>0.1157464438997658</v>
+        <v>0.01169131917356788</v>
       </c>
       <c r="E66">
-        <v>-0.002732321152994759</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02656503212582951</v>
+      </c>
+      <c r="F66">
+        <v>0.03638848621466561</v>
+      </c>
+      <c r="G66">
+        <v>-0.08041224311366409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.004305527265773813</v>
+        <v>0.05505934887898579</v>
       </c>
       <c r="C67">
-        <v>-0.05423642008217872</v>
+        <v>0.03530182064370013</v>
       </c>
       <c r="D67">
-        <v>0.05284160029397945</v>
+        <v>-0.006016189180579423</v>
       </c>
       <c r="E67">
-        <v>0.008583537469086066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004300184811808078</v>
+      </c>
+      <c r="F67">
+        <v>-0.01707330808812397</v>
+      </c>
+      <c r="G67">
+        <v>-0.06325019913617799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06192366572617367</v>
+        <v>0.1552228398936215</v>
       </c>
       <c r="C68">
-        <v>-0.2396081534307645</v>
+        <v>-0.2678937064214046</v>
       </c>
       <c r="D68">
-        <v>-0.1541631730759356</v>
+        <v>0.006147471165638504</v>
       </c>
       <c r="E68">
-        <v>-0.02118539600215609</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01070537568255323</v>
+      </c>
+      <c r="F68">
+        <v>-0.03190448485024431</v>
+      </c>
+      <c r="G68">
+        <v>-0.02460495598435727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0003342135167445178</v>
+        <v>0.08062997649885856</v>
       </c>
       <c r="C69">
-        <v>-0.03756136935254983</v>
+        <v>0.07006644375881585</v>
       </c>
       <c r="D69">
-        <v>0.07380555369137709</v>
+        <v>-0.009476730028885912</v>
       </c>
       <c r="E69">
-        <v>0.0134125559140453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02571195406699456</v>
+      </c>
+      <c r="F69">
+        <v>-0.03622648960423639</v>
+      </c>
+      <c r="G69">
+        <v>-0.07136736209523076</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04618766049278514</v>
+        <v>0.1418593124204242</v>
       </c>
       <c r="C71">
-        <v>-0.2091283052030125</v>
+        <v>-0.2283242858220536</v>
       </c>
       <c r="D71">
-        <v>-0.116219667998048</v>
+        <v>-0.002384270252968453</v>
       </c>
       <c r="E71">
-        <v>-0.01143425919660288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0313049949012446</v>
+      </c>
+      <c r="F71">
+        <v>-0.01716396375916006</v>
+      </c>
+      <c r="G71">
+        <v>-0.05993981149113309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0005886195287690095</v>
+        <v>0.08430706707021131</v>
       </c>
       <c r="C72">
-        <v>-0.03541876679274168</v>
+        <v>0.07277627895848597</v>
       </c>
       <c r="D72">
-        <v>0.1182778774367482</v>
+        <v>-0.007933918865957753</v>
       </c>
       <c r="E72">
-        <v>0.01372657180195196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002583456069873348</v>
+      </c>
+      <c r="F72">
+        <v>0.04199064570791394</v>
+      </c>
+      <c r="G72">
+        <v>-0.06436466142333391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05561077766957187</v>
+        <v>0.3738008450339358</v>
       </c>
       <c r="C73">
-        <v>-0.1638795155036794</v>
+        <v>0.1249252680589763</v>
       </c>
       <c r="D73">
-        <v>0.1909040532300563</v>
+        <v>0.02293852972179237</v>
       </c>
       <c r="E73">
-        <v>-0.01948041625518576</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06888189041610632</v>
+      </c>
+      <c r="F73">
+        <v>0.5710495535938678</v>
+      </c>
+      <c r="G73">
+        <v>0.2245488021017294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003961373590428285</v>
+        <v>0.1047778102398834</v>
       </c>
       <c r="C74">
-        <v>-0.06397789532378666</v>
+        <v>0.1113190960108973</v>
       </c>
       <c r="D74">
-        <v>0.169892201590303</v>
+        <v>-0.009894166722303541</v>
       </c>
       <c r="E74">
-        <v>-0.001909570407918513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0112325569508837</v>
+      </c>
+      <c r="F74">
+        <v>-0.06948781228854192</v>
+      </c>
+      <c r="G74">
+        <v>-0.06555153439800326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01426885204208309</v>
+        <v>0.2484663582526268</v>
       </c>
       <c r="C75">
-        <v>-0.1617723729421221</v>
+        <v>0.1513890743384581</v>
       </c>
       <c r="D75">
-        <v>0.3004153331864111</v>
+        <v>-0.03147346941334454</v>
       </c>
       <c r="E75">
-        <v>-0.009952321723139965</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05677743031018331</v>
+      </c>
+      <c r="F75">
+        <v>-0.1763853152546478</v>
+      </c>
+      <c r="G75">
+        <v>0.05007717257450382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.002243368003433676</v>
+        <v>0.1211997952939604</v>
       </c>
       <c r="C76">
-        <v>-0.1035742490406077</v>
+        <v>0.1131645167140008</v>
       </c>
       <c r="D76">
-        <v>0.2329954219220882</v>
+        <v>-0.02058582387823077</v>
       </c>
       <c r="E76">
-        <v>0.03840092442143483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03974390100044585</v>
+      </c>
+      <c r="F76">
+        <v>-0.1165745381187205</v>
+      </c>
+      <c r="G76">
+        <v>-0.04175480705811297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01448236261288781</v>
+        <v>0.06601379195804401</v>
       </c>
       <c r="C77">
-        <v>-0.0195289785748115</v>
+        <v>0.06286125395357356</v>
       </c>
       <c r="D77">
-        <v>0.0392728494041148</v>
+        <v>0.01275099756737832</v>
       </c>
       <c r="E77">
-        <v>-0.01693759484777726</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04850639955614174</v>
+      </c>
+      <c r="F77">
+        <v>0.01008320671122269</v>
+      </c>
+      <c r="G77">
+        <v>-0.05946555459390013</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006121627471535915</v>
+        <v>0.04211468931740874</v>
       </c>
       <c r="C78">
-        <v>-0.01510650644763025</v>
+        <v>0.0515186619421355</v>
       </c>
       <c r="D78">
-        <v>0.04045523599434426</v>
+        <v>0.005833470534167712</v>
       </c>
       <c r="E78">
-        <v>-0.003433725629284313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02232717900068541</v>
+      </c>
+      <c r="F78">
+        <v>0.03913783512071157</v>
+      </c>
+      <c r="G78">
+        <v>-0.07326580989177042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01720631361913272</v>
+        <v>0.05433021241074804</v>
       </c>
       <c r="C80">
-        <v>-0.07663136554626566</v>
+        <v>0.0713607981868348</v>
       </c>
       <c r="D80">
-        <v>0.2043004283573439</v>
+        <v>0.01037892004891302</v>
       </c>
       <c r="E80">
-        <v>0.7511992204432212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02583745128845156</v>
+      </c>
+      <c r="F80">
+        <v>0.002764008995133815</v>
+      </c>
+      <c r="G80">
+        <v>-0.587299810221224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.009960532802201091</v>
+        <v>0.1396729308414683</v>
       </c>
       <c r="C81">
-        <v>-0.1004315405189546</v>
+        <v>0.09675870523399194</v>
       </c>
       <c r="D81">
-        <v>0.1711705372781149</v>
+        <v>-0.01585620868371812</v>
       </c>
       <c r="E81">
-        <v>0.0179115824316743</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03441627585054245</v>
+      </c>
+      <c r="F81">
+        <v>-0.1339669759933552</v>
+      </c>
+      <c r="G81">
+        <v>-0.02271709731931556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1234355073713562</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07043509133135388</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008398512338660537</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08779752837876785</v>
+      </c>
+      <c r="F82">
+        <v>-0.03397334552319813</v>
+      </c>
+      <c r="G82">
+        <v>-0.02439411230915325</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007191544911555591</v>
+        <v>0.03626894721687614</v>
       </c>
       <c r="C83">
-        <v>-0.01836286029977656</v>
+        <v>0.02798026157657752</v>
       </c>
       <c r="D83">
-        <v>0.02246976510411176</v>
+        <v>0.005548257418798694</v>
       </c>
       <c r="E83">
-        <v>-0.003129535185471976</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02493613226765842</v>
+      </c>
+      <c r="F83">
+        <v>0.03249011825024335</v>
+      </c>
+      <c r="G83">
+        <v>-0.04664473918432367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02033239139122425</v>
+        <v>0.2143022895544587</v>
       </c>
       <c r="C85">
-        <v>-0.1273306228965516</v>
+        <v>0.1477080845980243</v>
       </c>
       <c r="D85">
-        <v>0.2771017655677449</v>
+        <v>-0.01948783076843017</v>
       </c>
       <c r="E85">
-        <v>0.002421619908545291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09788013725410007</v>
+      </c>
+      <c r="F85">
+        <v>-0.1391891065278388</v>
+      </c>
+      <c r="G85">
+        <v>0.104808492079184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009793759919054814</v>
+        <v>0.01367779294476373</v>
       </c>
       <c r="C86">
-        <v>-0.02826445776588055</v>
+        <v>0.02710840007798999</v>
       </c>
       <c r="D86">
-        <v>0.0154182298395642</v>
+        <v>0.01236430297970859</v>
       </c>
       <c r="E86">
-        <v>-0.03596583976871626</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04386182042894715</v>
+      </c>
+      <c r="F86">
+        <v>0.03316051206710111</v>
+      </c>
+      <c r="G86">
+        <v>-0.1557941846809509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008919378671961213</v>
+        <v>0.02292787152825118</v>
       </c>
       <c r="C87">
-        <v>-0.006264055445164137</v>
+        <v>0.02284713010270296</v>
       </c>
       <c r="D87">
-        <v>0.04023476730166612</v>
+        <v>0.01253667402788454</v>
       </c>
       <c r="E87">
-        <v>-0.006983891937621545</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08304247354931536</v>
+      </c>
+      <c r="F87">
+        <v>0.02004983853206982</v>
+      </c>
+      <c r="G87">
+        <v>-0.1026835263636052</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02777704909242878</v>
+        <v>0.09061739020180168</v>
       </c>
       <c r="C88">
-        <v>-0.02694313910160013</v>
+        <v>0.06574479825327398</v>
       </c>
       <c r="D88">
-        <v>0.03798619562996091</v>
+        <v>0.02243456848699651</v>
       </c>
       <c r="E88">
-        <v>0.00224283135366017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.009132883799023776</v>
+      </c>
+      <c r="F88">
+        <v>-0.01731525296711714</v>
+      </c>
+      <c r="G88">
+        <v>-0.05714138539298377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08943981361773672</v>
+        <v>0.2352780260959861</v>
       </c>
       <c r="C89">
-        <v>-0.3943696088172935</v>
+        <v>-0.3676585486910608</v>
       </c>
       <c r="D89">
-        <v>-0.2087831208665549</v>
+        <v>-0.000104940083723501</v>
       </c>
       <c r="E89">
-        <v>0.01774215107493666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01566522600891369</v>
+      </c>
+      <c r="F89">
+        <v>-0.0267897164546378</v>
+      </c>
+      <c r="G89">
+        <v>-0.05473090710612882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06764354736171296</v>
+        <v>0.2090886971703187</v>
       </c>
       <c r="C90">
-        <v>-0.3047057117542961</v>
+        <v>-0.3194155133643489</v>
       </c>
       <c r="D90">
-        <v>-0.1891782701481218</v>
+        <v>-0.004505499529144282</v>
       </c>
       <c r="E90">
-        <v>-0.01764881459424994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.004244188781611647</v>
+      </c>
+      <c r="F90">
+        <v>-0.04924391299827313</v>
+      </c>
+      <c r="G90">
+        <v>-0.01909208918415615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01005381886033182</v>
+        <v>0.187712045428713</v>
       </c>
       <c r="C91">
-        <v>-0.1391279048394051</v>
+        <v>0.142290418966021</v>
       </c>
       <c r="D91">
-        <v>0.2310935938046361</v>
+        <v>-0.02399117629403314</v>
       </c>
       <c r="E91">
-        <v>0.02089011091718229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06774137559997993</v>
+      </c>
+      <c r="F91">
+        <v>-0.1489949574582124</v>
+      </c>
+      <c r="G91">
+        <v>-0.01392843658478409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.03522192121320093</v>
+        <v>0.20307606710177</v>
       </c>
       <c r="C92">
-        <v>-0.3172913556515901</v>
+        <v>-0.2569845982813972</v>
       </c>
       <c r="D92">
-        <v>-0.07888240188459714</v>
+        <v>-0.03883000393729712</v>
       </c>
       <c r="E92">
-        <v>-0.02654137379815002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02921242550154826</v>
+      </c>
+      <c r="F92">
+        <v>-0.06284085350457942</v>
+      </c>
+      <c r="G92">
+        <v>-0.1232177278647828</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06611285927965406</v>
+        <v>0.2336858334196298</v>
       </c>
       <c r="C93">
-        <v>-0.3277333838537237</v>
+        <v>-0.3165262800253235</v>
       </c>
       <c r="D93">
-        <v>-0.1727943218518261</v>
+        <v>-0.01105315079304574</v>
       </c>
       <c r="E93">
-        <v>-0.04116161258903078</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.00879032618756629</v>
+      </c>
+      <c r="F93">
+        <v>-0.03112000955724908</v>
+      </c>
+      <c r="G93">
+        <v>-0.02371936870202505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03431436888154434</v>
+        <v>0.3162313179568027</v>
       </c>
       <c r="C94">
-        <v>-0.1637967055591662</v>
+        <v>0.1804673291602457</v>
       </c>
       <c r="D94">
-        <v>0.2556048118383853</v>
+        <v>-0.0192984378014581</v>
       </c>
       <c r="E94">
-        <v>-0.01156274709832037</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1694330629233659</v>
+      </c>
+      <c r="F94">
+        <v>-0.4762891179449903</v>
+      </c>
+      <c r="G94">
+        <v>0.3246413029426701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004050304303025019</v>
+        <v>0.09781243438737483</v>
       </c>
       <c r="C95">
-        <v>-0.03381831587969571</v>
+        <v>0.0857215470232221</v>
       </c>
       <c r="D95">
-        <v>0.09459860007971339</v>
+        <v>-0.009669691149518036</v>
       </c>
       <c r="E95">
-        <v>-0.1255827082953456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06453085246262302</v>
+      </c>
+      <c r="F95">
+        <v>0.2070323051628918</v>
+      </c>
+      <c r="G95">
+        <v>0.09784599366951352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01645213721487745</v>
+        <v>0.1974411083833209</v>
       </c>
       <c r="C98">
-        <v>-0.14975415858482</v>
+        <v>0.04968013233381866</v>
       </c>
       <c r="D98">
-        <v>0.1416254893967558</v>
+        <v>-0.01183766502385879</v>
       </c>
       <c r="E98">
-        <v>-0.0415502304609915</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06844683404403797</v>
+      </c>
+      <c r="F98">
+        <v>0.2371924468364224</v>
+      </c>
+      <c r="G98">
+        <v>0.007214380110839993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00899346898384349</v>
+        <v>0.008998163399316146</v>
       </c>
       <c r="C101">
-        <v>-0.01818782660568997</v>
+        <v>0.02092717008023163</v>
       </c>
       <c r="D101">
-        <v>0.009918150796659968</v>
+        <v>0.00832017988237381</v>
       </c>
       <c r="E101">
-        <v>0.00353717995998629</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001666759797753062</v>
+      </c>
+      <c r="F101">
+        <v>-0.01634343787812528</v>
+      </c>
+      <c r="G101">
+        <v>-0.07636993536118092</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01899613706984424</v>
+        <v>0.1170523567903424</v>
       </c>
       <c r="C102">
-        <v>-0.06865739515733187</v>
+        <v>0.08586180625413022</v>
       </c>
       <c r="D102">
-        <v>0.1336886189116237</v>
+        <v>0.0006625065614187045</v>
       </c>
       <c r="E102">
-        <v>0.004665725233455205</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03236262907165476</v>
+      </c>
+      <c r="F102">
+        <v>-0.04125031035306299</v>
+      </c>
+      <c r="G102">
+        <v>-0.002691974923489135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001040418315909605</v>
+        <v>0.002166625478137265</v>
       </c>
       <c r="C103">
-        <v>-0.006130355716519969</v>
+        <v>0.003392068274137158</v>
       </c>
       <c r="D103">
-        <v>0.01904709712943557</v>
+        <v>-5.016006258615889e-05</v>
       </c>
       <c r="E103">
-        <v>0.012752268851288</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0006820733390999749</v>
+      </c>
+      <c r="F103">
+        <v>-0.006982353755524957</v>
+      </c>
+      <c r="G103">
+        <v>-0.01097552446482404</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9723427372300374</v>
+        <v>0.02116825640216646</v>
       </c>
       <c r="C104">
-        <v>0.1891402434857961</v>
+        <v>-0.02917258208535449</v>
       </c>
       <c r="D104">
-        <v>-0.01904714840303787</v>
+        <v>0.9870338908746369</v>
       </c>
       <c r="E104">
-        <v>0.03859674017971499</v>
+        <v>-0.05654801404798773</v>
+      </c>
+      <c r="F104">
+        <v>-0.03958968923961951</v>
+      </c>
+      <c r="G104">
+        <v>0.02626906943894236</v>
       </c>
     </row>
   </sheetData>
